--- a/files/SAE/min_radius_meters.xlsx
+++ b/files/SAE/min_radius_meters.xlsx
@@ -1,30 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjacome\Documents\GitHub\CurriculumVitae\files\SAE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ricardo\Documents\GitHub\CurriculumVitae\files\SAE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6194D287-77FA-4BA8-A865-968E7F2C8142}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17775" windowHeight="10830"/>
+    <workbookView xWindow="6285" yWindow="255" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>e</t>
   </si>
@@ -37,11 +47,14 @@
   <si>
     <t>radius (m)</t>
   </si>
+  <si>
+    <t>Curvature (m^-1)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -352,16 +365,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -374,8 +390,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>15</v>
       </c>
@@ -388,8 +407,12 @@
       <c r="D2">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <f>1/D2</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>20</v>
       </c>
@@ -402,8 +425,12 @@
       <c r="D3">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <f t="shared" ref="E3:E66" si="0">1/D3</f>
+        <v>0.1234567901234568</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>30</v>
       </c>
@@ -416,8 +443,12 @@
       <c r="D4">
         <v>22.1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>4.5248868778280542E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>40</v>
       </c>
@@ -430,8 +461,12 @@
       <c r="D5">
         <v>46.7</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>2.1413276231263382E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>50</v>
       </c>
@@ -444,8 +479,12 @@
       <c r="D6">
         <v>85.6</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>1.1682242990654207E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>60</v>
       </c>
@@ -458,8 +497,12 @@
       <c r="D7">
         <v>135</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>7.4074074074074077E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>70</v>
       </c>
@@ -472,8 +515,12 @@
       <c r="D8">
         <v>203.1</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>4.9236829148202859E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>80</v>
       </c>
@@ -486,8 +533,12 @@
       <c r="D9">
         <v>280</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>3.5714285714285713E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>90</v>
       </c>
@@ -500,8 +551,12 @@
       <c r="D10">
         <v>375.2</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>2.6652452025586353E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>100</v>
       </c>
@@ -514,8 +569,12 @@
       <c r="D11">
         <v>492.1</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>2.0321072952651899E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>15</v>
       </c>
@@ -528,8 +587,12 @@
       <c r="D12">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>0.25641025641025644</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>20</v>
       </c>
@@ -542,8 +605,12 @@
       <c r="D13">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>0.12987012987012986</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>30</v>
       </c>
@@ -556,8 +623,12 @@
       <c r="D14">
         <v>20.8</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>4.8076923076923073E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>40</v>
       </c>
@@ -570,8 +641,12 @@
       <c r="D15">
         <v>43.4</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>2.3041474654377881E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>50</v>
       </c>
@@ -584,8 +659,12 @@
       <c r="D16">
         <v>78.7</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>1.2706480304955527E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>60</v>
       </c>
@@ -598,8 +677,12 @@
       <c r="D17">
         <v>123.2</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>8.1168831168831161E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>70</v>
       </c>
@@ -612,8 +695,12 @@
       <c r="D18">
         <v>183.7</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>5.4436581382689168E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>80</v>
       </c>
@@ -626,8 +713,12 @@
       <c r="D19">
         <v>252</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>3.968253968253968E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>90</v>
       </c>
@@ -640,8 +731,12 @@
       <c r="D20">
         <v>335.7</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>2.9788501638367592E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>100</v>
       </c>
@@ -654,8 +749,12 @@
       <c r="D21">
         <v>437.4</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>2.2862368541380889E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>110</v>
       </c>
@@ -668,8 +767,12 @@
       <c r="D22">
         <v>560.4</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>1.7844396859386154E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>120</v>
       </c>
@@ -682,8 +785,12 @@
       <c r="D23">
         <v>755.9</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>1.3229263130043658E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>130</v>
       </c>
@@ -696,8 +803,12 @@
       <c r="D24">
         <v>950.5</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>1.0520778537611783E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>15</v>
       </c>
@@ -710,8 +821,12 @@
       <c r="D25">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>0.27027027027027023</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>20</v>
       </c>
@@ -724,8 +839,12 @@
       <c r="D26">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>0.13698630136986301</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>30</v>
       </c>
@@ -738,8 +857,12 @@
       <c r="D27">
         <v>19.7</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>5.0761421319796954E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>40</v>
       </c>
@@ -752,8 +875,12 @@
       <c r="D28">
         <v>40.6</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>2.463054187192118E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>50</v>
       </c>
@@ -766,8 +893,12 @@
       <c r="D29">
         <v>72.900000000000006</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>1.3717421124828532E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>60</v>
       </c>
@@ -780,8 +911,12 @@
       <c r="D30">
         <v>113.4</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>8.8183421516754845E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>70</v>
       </c>
@@ -794,8 +929,12 @@
       <c r="D31">
         <v>167.8</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>5.9594755661501785E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>80</v>
       </c>
@@ -808,8 +947,12 @@
       <c r="D32">
         <v>229.1</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>4.3649061545176782E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>90</v>
       </c>
@@ -822,8 +965,12 @@
       <c r="D33">
         <v>303.7</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>3.2927230819888051E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>100</v>
       </c>
@@ -836,8 +983,12 @@
       <c r="D34">
         <v>393.7</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>2.5400050800101601E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>110</v>
       </c>
@@ -850,8 +1001,12 @@
       <c r="D35">
         <v>501.5</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>1.9940179461615153E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>120</v>
       </c>
@@ -864,8 +1019,12 @@
       <c r="D36">
         <v>667</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>1.4992503748125937E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>130</v>
       </c>
@@ -878,8 +1037,12 @@
       <c r="D37">
         <v>831.7</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>1.2023566189731873E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>15</v>
       </c>
@@ -892,8 +1055,12 @@
       <c r="D38">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>20</v>
       </c>
@@ -906,8 +1073,12 @@
       <c r="D39">
         <v>7</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>30</v>
       </c>
@@ -920,8 +1091,12 @@
       <c r="D40">
         <v>18.600000000000001</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>5.3763440860215048E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -934,8 +1109,12 @@
       <c r="D41">
         <v>38.200000000000003</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>2.6178010471204185E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>50</v>
       </c>
@@ -948,8 +1127,12 @@
       <c r="D42">
         <v>67.900000000000006</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>1.4727540500736375E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>60</v>
       </c>
@@ -962,8 +1145,12 @@
       <c r="D43">
         <v>105</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>9.5238095238095247E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>70</v>
       </c>
@@ -976,8 +1163,12 @@
       <c r="D44">
         <v>154.30000000000001</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>6.4808813998703816E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>80</v>
       </c>
@@ -990,8 +1181,12 @@
       <c r="D45">
         <v>210</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>4.7619047619047623E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>90</v>
       </c>
@@ -1004,8 +1199,12 @@
       <c r="D46">
         <v>277.3</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46">
+        <f t="shared" si="0"/>
+        <v>3.6062026685899748E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>100</v>
       </c>
@@ -1018,8 +1217,12 @@
       <c r="D47">
         <v>357.9</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47">
+        <f t="shared" si="0"/>
+        <v>2.7940765576976809E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>110</v>
       </c>
@@ -1032,8 +1235,12 @@
       <c r="D48">
         <v>453.7</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48">
+        <f t="shared" si="0"/>
+        <v>2.2040996253030638E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>120</v>
       </c>
@@ -1046,8 +1253,12 @@
       <c r="D49">
         <v>596.79999999999995</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49">
+        <f t="shared" si="0"/>
+        <v>1.675603217158177E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>130</v>
       </c>
@@ -1060,8 +1271,12 @@
       <c r="D50">
         <v>739.3</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50">
+        <f t="shared" si="0"/>
+        <v>1.3526308670363859E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>15</v>
       </c>
@@ -1074,8 +1289,12 @@
       <c r="D51">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51">
+        <f t="shared" si="0"/>
+        <v>0.29411764705882354</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>20</v>
       </c>
@@ -1088,8 +1307,12 @@
       <c r="D52">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52">
+        <f t="shared" si="0"/>
+        <v>0.14925373134328357</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>30</v>
       </c>
@@ -1102,8 +1325,12 @@
       <c r="D53">
         <v>17.7</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53">
+        <f t="shared" si="0"/>
+        <v>5.6497175141242938E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>40</v>
       </c>
@@ -1116,8 +1343,12 @@
       <c r="D54">
         <v>36</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54">
+        <f t="shared" si="0"/>
+        <v>2.7777777777777776E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>50</v>
       </c>
@@ -1130,8 +1361,12 @@
       <c r="D55">
         <v>63.5</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55">
+        <f t="shared" si="0"/>
+        <v>1.5748031496062992E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>60</v>
       </c>
@@ -1144,8 +1379,12 @@
       <c r="D56">
         <v>97.7</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56">
+        <f t="shared" si="0"/>
+        <v>1.0235414534288638E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>70</v>
       </c>
@@ -1158,8 +1397,12 @@
       <c r="D57">
         <v>142.9</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57">
+        <f t="shared" si="0"/>
+        <v>6.9979006298110562E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>80</v>
       </c>
@@ -1172,8 +1415,12 @@
       <c r="D58">
         <v>193.8</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58">
+        <f t="shared" si="0"/>
+        <v>5.1599587203302374E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>90</v>
       </c>
@@ -1186,8 +1433,12 @@
       <c r="D59">
         <v>255.1</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59">
+        <f t="shared" si="0"/>
+        <v>3.9200313602508821E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>100</v>
       </c>
@@ -1200,8 +1451,12 @@
       <c r="D60">
         <v>328.1</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60">
+        <f t="shared" si="0"/>
+        <v>3.0478512648582745E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>110</v>
       </c>
@@ -1214,8 +1469,12 @@
       <c r="D61">
         <v>414.2</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61">
+        <f t="shared" si="0"/>
+        <v>2.4142926122646064E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>120</v>
       </c>
@@ -1228,8 +1487,12 @@
       <c r="D62">
         <v>539.9</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62">
+        <f t="shared" si="0"/>
+        <v>1.8521948508983146E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>130</v>
       </c>
@@ -1241,6 +1504,10 @@
       </c>
       <c r="D63">
         <v>665.4</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="0"/>
+        <v>1.5028554253080854E-3</v>
       </c>
     </row>
   </sheetData>
